--- a/doc/Test_Coverage.xlsx
+++ b/doc/Test_Coverage.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>Klasse</t>
   </si>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,11 +552,20 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
